--- a/POO.xlsx
+++ b/POO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Semana 1</t>
   </si>
@@ -153,9 +153,6 @@
     <t>Semana 7</t>
   </si>
   <si>
-    <t>Desenvolvendo o aplicativo aplicando o mesmo banco, customizando, funcionalidades.</t>
-  </si>
-  <si>
     <t>Finalizar o projeto e preprarar o seminário.</t>
   </si>
   <si>
@@ -243,7 +240,13 @@
     <t>Desenvolver a aplicação Web desenvolvendo a parte back-end. Fazer roteamento, HTML+CSS.</t>
   </si>
   <si>
-    <t>Desenvolver o aplicativo, baixar horario</t>
+    <t>Corrigir erros  da funcionalidade de download de horários.</t>
+  </si>
+  <si>
+    <t>Modelar menu de login, download de horário e favoritos.</t>
+  </si>
+  <si>
+    <t>Configurar página para quando o usuário estiver logado. Adicionar opções no login.</t>
   </si>
 </sst>
 </file>
@@ -641,24 +644,192 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -674,176 +845,8 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1159,8 +1162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="B28" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35:F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1181,210 +1184,210 @@
   <sheetData>
     <row r="1" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="Q1" s="9" t="s">
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="Q1" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9" t="s">
+      <c r="R1" s="70"/>
+      <c r="S1" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
+      <c r="B2" s="76" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="76" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E4" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="50"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="55"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="59"/>
+      <c r="N4" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="O4" s="69"/>
+      <c r="P4" s="4"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E5" s="51"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="61"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B7" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="40"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="22"/>
+      <c r="H7" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="22"/>
+      <c r="K7" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" s="22"/>
+      <c r="N7" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="O7" s="64"/>
+      <c r="Q7" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="24"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="24"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="24"/>
+      <c r="N8" s="65"/>
+      <c r="O8" s="66"/>
+      <c r="Q8" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="R8" s="62"/>
+      <c r="S8" s="62"/>
+      <c r="T8" s="22"/>
+    </row>
+    <row r="9" spans="1:21" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="26"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="26"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="26"/>
+      <c r="N9" s="67"/>
+      <c r="O9" s="68"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="42"/>
+      <c r="S9" s="42"/>
+      <c r="T9" s="24"/>
+    </row>
+    <row r="10" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q10" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="R10" s="42"/>
+      <c r="S10" s="42"/>
+      <c r="T10" s="24"/>
+    </row>
+    <row r="11" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="40"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="E4" s="66" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="67"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="59"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="L4" s="63"/>
-      <c r="N4" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="O4" s="55"/>
-      <c r="P4" s="4"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="E5" s="68"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="65"/>
-      <c r="N5" s="55"/>
-      <c r="O5" s="55"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B7" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="38"/>
-      <c r="H7" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="38"/>
-      <c r="K7" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="L7" s="38"/>
-      <c r="N7" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="O7" s="44"/>
-      <c r="Q7" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="40"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="40"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="40"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="46"/>
-      <c r="Q8" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="R8" s="71"/>
-      <c r="S8" s="71"/>
-      <c r="T8" s="38"/>
-    </row>
-    <row r="9" spans="1:21" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="42"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="42"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="42"/>
-      <c r="N9" s="47"/>
-      <c r="O9" s="48"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="70"/>
-      <c r="S9" s="70"/>
-      <c r="T9" s="40"/>
-    </row>
-    <row r="10" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Q10" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="R10" s="70"/>
-      <c r="S10" s="70"/>
-      <c r="T10" s="40"/>
-    </row>
-    <row r="11" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="38"/>
-      <c r="H11" s="37" t="s">
+      <c r="F11" s="22"/>
+      <c r="H11" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="38"/>
-      <c r="K11" s="37" t="s">
+      <c r="I11" s="22"/>
+      <c r="K11" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="38"/>
-      <c r="N11" s="43" t="s">
+      <c r="L11" s="22"/>
+      <c r="N11" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="O11" s="44"/>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="70"/>
-      <c r="S11" s="70"/>
-      <c r="T11" s="40"/>
+      <c r="O11" s="64"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="42"/>
+      <c r="S11" s="42"/>
+      <c r="T11" s="24"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="40"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="40"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="40"/>
-      <c r="N12" s="45"/>
-      <c r="O12" s="46"/>
-      <c r="Q12" s="39"/>
-      <c r="R12" s="70"/>
-      <c r="S12" s="70"/>
-      <c r="T12" s="40"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="24"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="24"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="24"/>
+      <c r="N12" s="65"/>
+      <c r="O12" s="66"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="42"/>
+      <c r="S12" s="42"/>
+      <c r="T12" s="24"/>
     </row>
     <row r="13" spans="1:21" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="42"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="42"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="42"/>
-      <c r="N13" s="47"/>
-      <c r="O13" s="48"/>
-      <c r="Q13" s="41" t="s">
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="26"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="26"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="26"/>
+      <c r="N13" s="67"/>
+      <c r="O13" s="68"/>
+      <c r="Q13" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="R13" s="57"/>
-      <c r="S13" s="57"/>
-      <c r="T13" s="42"/>
+      <c r="R13" s="53"/>
+      <c r="S13" s="53"/>
+      <c r="T13" s="26"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="Q14" s="2"/>
@@ -1393,486 +1396,488 @@
       <c r="T14" s="2"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="38"/>
-      <c r="H15" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="I15" s="38"/>
-      <c r="K15" s="37" t="s">
+      <c r="C15" s="40"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="22"/>
+      <c r="H15" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="I15" s="22"/>
+      <c r="K15" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="L15" s="38"/>
-      <c r="N15" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="O15" s="44"/>
+      <c r="L15" s="22"/>
+      <c r="N15" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="O15" s="64"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="40"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="40"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="40"/>
-      <c r="N16" s="45"/>
-      <c r="O16" s="46"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="24"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="24"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="24"/>
+      <c r="N16" s="65"/>
+      <c r="O16" s="66"/>
     </row>
     <row r="17" spans="2:20" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="42"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="42"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="42"/>
-      <c r="N17" s="47"/>
-      <c r="O17" s="48"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="26"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="26"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="26"/>
+      <c r="N17" s="67"/>
+      <c r="O17" s="68"/>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="F19" s="38"/>
-      <c r="H19" s="37" t="s">
+      <c r="C19" s="40"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" s="22"/>
+      <c r="H19" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="I19" s="38"/>
-      <c r="K19" s="31" t="s">
+      <c r="I19" s="22"/>
+      <c r="K19" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="L19" s="32"/>
-      <c r="N19" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="O19" s="44"/>
+      <c r="L19" s="44"/>
+      <c r="N19" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="O19" s="64"/>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="40"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="40"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="34"/>
-      <c r="N20" s="45"/>
-      <c r="O20" s="46"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="24"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="24"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="46"/>
+      <c r="N20" s="65"/>
+      <c r="O20" s="66"/>
     </row>
     <row r="21" spans="2:20" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="42"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="42"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="36"/>
-      <c r="N21" s="47"/>
-      <c r="O21" s="48"/>
-      <c r="S21" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="T21" s="29"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="26"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="26"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="48"/>
+      <c r="N21" s="67"/>
+      <c r="O21" s="68"/>
+      <c r="S21" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="T21" s="40"/>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="Q22" s="10" t="s">
+      <c r="Q22" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="13"/>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B23" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="40"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" s="22"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="44"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="22"/>
+      <c r="N23" s="63"/>
+      <c r="O23" s="64"/>
+      <c r="Q23" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="10"/>
-    </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B23" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="F23" s="32"/>
-      <c r="H23" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="I23" s="32"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="38"/>
-      <c r="N23" s="43"/>
-      <c r="O23" s="44"/>
-      <c r="Q23" s="56" t="s">
+      <c r="R23" s="14"/>
+      <c r="S23" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="T23" s="14"/>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="24"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="46"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="24"/>
+      <c r="N24" s="65"/>
+      <c r="O24" s="66"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="14"/>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="26"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="48"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="26"/>
+      <c r="N25" s="67"/>
+      <c r="O25" s="68"/>
+      <c r="Q25" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14">
+        <v>1</v>
+      </c>
+      <c r="T25" s="14"/>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="14"/>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B27" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="22"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="28"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="28"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="34"/>
+      <c r="Q27" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="R23" s="56"/>
-      <c r="S23" s="56">
+      <c r="R27" s="14"/>
+      <c r="S27" s="14">
+        <v>4</v>
+      </c>
+      <c r="T27" s="14"/>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B28" s="17"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="24"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="30"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="30"/>
+      <c r="N28" s="35"/>
+      <c r="O28" s="36"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="14"/>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B29" s="19"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="26"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="32"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="32"/>
+      <c r="N29" s="37"/>
+      <c r="O29" s="38"/>
+      <c r="Q29" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="R29" s="14"/>
+      <c r="S29" s="14">
         <v>0.5</v>
       </c>
-      <c r="T23" s="56"/>
-    </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="34"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="34"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="40"/>
-      <c r="N24" s="45"/>
-      <c r="O24" s="46"/>
-      <c r="Q24" s="56"/>
-      <c r="R24" s="56"/>
-      <c r="S24" s="56"/>
-      <c r="T24" s="56"/>
-    </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="36"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="36"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="42"/>
-      <c r="N25" s="47"/>
-      <c r="O25" s="48"/>
-      <c r="Q25" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="R25" s="56"/>
-      <c r="S25" s="56">
-        <v>1</v>
-      </c>
-      <c r="T25" s="56"/>
-    </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="Q26" s="56"/>
-      <c r="R26" s="56"/>
-      <c r="S26" s="56"/>
-      <c r="T26" s="56"/>
-    </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B27" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="12"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="12"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="12"/>
-      <c r="N27" s="49"/>
-      <c r="O27" s="50"/>
-      <c r="Q27" s="56" t="s">
-        <v>34</v>
-      </c>
-      <c r="R27" s="56"/>
-      <c r="S27" s="56">
-        <v>4</v>
-      </c>
-      <c r="T27" s="56"/>
-    </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B28" s="22"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="27"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="27"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="27"/>
-      <c r="N28" s="51"/>
-      <c r="O28" s="52"/>
-      <c r="Q28" s="56"/>
-      <c r="R28" s="56"/>
-      <c r="S28" s="56"/>
-      <c r="T28" s="56"/>
-    </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B29" s="24"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="14"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="14"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="14"/>
-      <c r="N29" s="53"/>
-      <c r="O29" s="54"/>
-      <c r="Q29" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="R29" s="56"/>
-      <c r="S29" s="56">
-        <v>0.5</v>
-      </c>
-      <c r="T29" s="56"/>
+      <c r="T29" s="14"/>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.25">
       <c r="O30" s="5"/>
-      <c r="Q30" s="56"/>
-      <c r="R30" s="56"/>
-      <c r="S30" s="56"/>
-      <c r="T30" s="56"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="14"/>
+      <c r="T30" s="14"/>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B31" s="29" t="s">
+      <c r="B31" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="29"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="38"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="12"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="12"/>
-      <c r="N31" s="49" t="s">
+      <c r="C31" s="40"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" s="22"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="28"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="28"/>
+      <c r="N31" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="O31" s="34"/>
+      <c r="Q31" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="R31" s="14"/>
+      <c r="S31" s="14">
+        <v>1</v>
+      </c>
+      <c r="T31" s="14"/>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="24"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="30"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="30"/>
+      <c r="N32" s="35"/>
+      <c r="O32" s="36"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="14"/>
+      <c r="T32" s="14"/>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="26"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="32"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="32"/>
+      <c r="N33" s="37"/>
+      <c r="O33" s="38"/>
+      <c r="Q33" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="R33" s="39"/>
+      <c r="S33" s="39">
+        <v>1</v>
+      </c>
+      <c r="T33" s="39"/>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="Q34" s="39"/>
+      <c r="R34" s="39"/>
+      <c r="S34" s="39"/>
+      <c r="T34" s="39"/>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B35" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F35" s="22"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="28"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="28"/>
+      <c r="N35" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="O31" s="50"/>
-      <c r="Q31" s="56" t="s">
-        <v>53</v>
-      </c>
-      <c r="R31" s="56"/>
-      <c r="S31" s="56">
+      <c r="O35" s="34"/>
+      <c r="Q35" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="R35" s="14"/>
+      <c r="S35" s="14">
         <v>1</v>
       </c>
-      <c r="T31" s="56"/>
-    </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="40"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="27"/>
-      <c r="K32" s="26"/>
-      <c r="L32" s="27"/>
-      <c r="N32" s="51"/>
-      <c r="O32" s="52"/>
-      <c r="Q32" s="56"/>
-      <c r="R32" s="56"/>
-      <c r="S32" s="56"/>
-      <c r="T32" s="56"/>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="42"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="14"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="14"/>
-      <c r="N33" s="53"/>
-      <c r="O33" s="54"/>
-      <c r="Q33" s="76" t="s">
-        <v>37</v>
-      </c>
-      <c r="R33" s="76"/>
-      <c r="S33" s="76">
+      <c r="T35" s="14"/>
+    </row>
+    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B36" s="17"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="24"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="30"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="30"/>
+      <c r="N36" s="35"/>
+      <c r="O36" s="36"/>
+      <c r="Q36" s="14"/>
+      <c r="R36" s="14"/>
+      <c r="S36" s="14"/>
+      <c r="T36" s="14"/>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B37" s="19"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="26"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="32"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="32"/>
+      <c r="N37" s="37"/>
+      <c r="O37" s="38"/>
+      <c r="Q37" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="R37" s="14"/>
+      <c r="S37" s="14">
         <v>1</v>
       </c>
-      <c r="T33" s="76"/>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="Q34" s="76"/>
-      <c r="R34" s="76"/>
-      <c r="S34" s="76"/>
-      <c r="T34" s="76"/>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B35" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="37" t="s">
+      <c r="T37" s="14"/>
+    </row>
+    <row r="38" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="Q38" s="14"/>
+      <c r="R38" s="14"/>
+      <c r="S38" s="14"/>
+      <c r="T38" s="14"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B40" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" s="13"/>
+      <c r="D40" s="1"/>
+      <c r="F40" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="G40" s="75"/>
+      <c r="H40" s="75"/>
+      <c r="I40" s="75"/>
+      <c r="J40" s="75"/>
+      <c r="K40" s="75"/>
+      <c r="N40" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F35" s="38"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="12"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="12"/>
-      <c r="N35" s="49" t="s">
+      <c r="O40" s="13"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B41" s="71">
+        <v>8</v>
+      </c>
+      <c r="C41" s="72"/>
+      <c r="N41" s="27"/>
+      <c r="O41" s="28"/>
+      <c r="R41" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="S41" s="13"/>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B42" s="73"/>
+      <c r="C42" s="74"/>
+      <c r="N42" s="31"/>
+      <c r="O42" s="32"/>
+      <c r="R42" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="O35" s="50"/>
-      <c r="Q35" s="56" t="s">
-        <v>51</v>
-      </c>
-      <c r="R35" s="56"/>
-      <c r="S35" s="56">
-        <v>1</v>
-      </c>
-      <c r="T35" s="56"/>
-    </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B36" s="22"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="39"/>
-      <c r="F36" s="40"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="27"/>
-      <c r="K36" s="26"/>
-      <c r="L36" s="27"/>
-      <c r="N36" s="51"/>
-      <c r="O36" s="52"/>
-      <c r="Q36" s="56"/>
-      <c r="R36" s="56"/>
-      <c r="S36" s="56"/>
-      <c r="T36" s="56"/>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B37" s="24"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="42"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="14"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="14"/>
-      <c r="N37" s="53"/>
-      <c r="O37" s="54"/>
-      <c r="Q37" s="56" t="s">
-        <v>52</v>
-      </c>
-      <c r="R37" s="56"/>
-      <c r="S37" s="56">
-        <v>1</v>
-      </c>
-      <c r="T37" s="56"/>
-    </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="Q38" s="56"/>
-      <c r="R38" s="56"/>
-      <c r="S38" s="56"/>
-      <c r="T38" s="56"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B40" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C40" s="10"/>
-      <c r="D40" s="1"/>
-      <c r="F40" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="19"/>
-      <c r="K40" s="19"/>
-      <c r="N40" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="O40" s="10"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B41" s="15">
-        <v>8</v>
-      </c>
-      <c r="C41" s="16"/>
-      <c r="N41" s="11"/>
-      <c r="O41" s="12"/>
-      <c r="R41" s="10" t="s">
+      <c r="S42" s="9" t="s">
         <v>43</v>
-      </c>
-      <c r="S41" s="10"/>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B42" s="17"/>
-      <c r="C42" s="18"/>
-      <c r="N42" s="13"/>
-      <c r="O42" s="14"/>
-      <c r="R42" s="72" t="s">
-        <v>42</v>
-      </c>
-      <c r="S42" s="72" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="43" spans="2:20" x14ac:dyDescent="0.25">
       <c r="F43" s="4"/>
-      <c r="R43" s="73">
+      <c r="R43" s="10">
         <v>1</v>
       </c>
       <c r="S43" s="6"/>
     </row>
     <row r="44" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="R44" s="74">
+      <c r="R44" s="11">
         <v>2</v>
       </c>
       <c r="S44" s="7"/>
     </row>
     <row r="45" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="R45" s="74">
+      <c r="R45" s="11">
         <v>3</v>
       </c>
       <c r="S45" s="7"/>
     </row>
     <row r="46" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="R46" s="74">
+      <c r="R46" s="11">
         <v>4</v>
       </c>
       <c r="S46" s="7"/>
     </row>
     <row r="47" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="R47" s="74">
+      <c r="R47" s="11">
         <v>5</v>
       </c>
       <c r="S47" s="7"/>
     </row>
     <row r="48" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="R48" s="74">
+      <c r="R48" s="11">
         <v>6</v>
       </c>
       <c r="S48" s="7"/>
     </row>
     <row r="49" spans="15:19" x14ac:dyDescent="0.25">
-      <c r="R49" s="74">
+      <c r="R49" s="11">
         <v>7</v>
       </c>
       <c r="S49" s="7"/>
     </row>
     <row r="50" spans="15:19" x14ac:dyDescent="0.25">
-      <c r="R50" s="75">
+      <c r="R50" s="12">
         <v>8</v>
       </c>
       <c r="S50" s="8"/>
@@ -1882,67 +1887,6 @@
     </row>
   </sheetData>
   <mergeCells count="77">
-    <mergeCell ref="R41:S41"/>
-    <mergeCell ref="Q35:R36"/>
-    <mergeCell ref="S35:T36"/>
-    <mergeCell ref="Q37:R38"/>
-    <mergeCell ref="S37:T38"/>
-    <mergeCell ref="B35:D37"/>
-    <mergeCell ref="E35:F37"/>
-    <mergeCell ref="H35:I37"/>
-    <mergeCell ref="K35:L37"/>
-    <mergeCell ref="N35:O37"/>
-    <mergeCell ref="Q31:R32"/>
-    <mergeCell ref="Q33:R34"/>
-    <mergeCell ref="S27:T28"/>
-    <mergeCell ref="S29:T30"/>
-    <mergeCell ref="S31:T32"/>
-    <mergeCell ref="S33:T34"/>
-    <mergeCell ref="B19:D21"/>
-    <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="Q10:T12"/>
-    <mergeCell ref="E19:F21"/>
-    <mergeCell ref="H19:I21"/>
-    <mergeCell ref="K19:L21"/>
-    <mergeCell ref="E4:F5"/>
-    <mergeCell ref="K15:L17"/>
-    <mergeCell ref="B7:D9"/>
-    <mergeCell ref="B11:D13"/>
-    <mergeCell ref="B15:D17"/>
-    <mergeCell ref="E7:F9"/>
-    <mergeCell ref="E11:F13"/>
-    <mergeCell ref="E15:F17"/>
-    <mergeCell ref="H7:I9"/>
-    <mergeCell ref="K7:L9"/>
-    <mergeCell ref="H11:I13"/>
-    <mergeCell ref="K11:L13"/>
-    <mergeCell ref="H15:I17"/>
-    <mergeCell ref="Q27:R28"/>
-    <mergeCell ref="Q29:R30"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="H4:I5"/>
-    <mergeCell ref="K4:L5"/>
-    <mergeCell ref="Q8:T9"/>
-    <mergeCell ref="N19:O21"/>
-    <mergeCell ref="Q23:R24"/>
-    <mergeCell ref="Q25:R26"/>
-    <mergeCell ref="S23:T24"/>
-    <mergeCell ref="S25:T26"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="N4:O5"/>
-    <mergeCell ref="N7:O9"/>
-    <mergeCell ref="N11:O13"/>
-    <mergeCell ref="N15:O17"/>
-    <mergeCell ref="H23:I25"/>
-    <mergeCell ref="K23:L25"/>
-    <mergeCell ref="N23:O25"/>
-    <mergeCell ref="B31:D33"/>
-    <mergeCell ref="E31:F33"/>
-    <mergeCell ref="H31:I33"/>
-    <mergeCell ref="K31:L33"/>
-    <mergeCell ref="N31:O33"/>
-    <mergeCell ref="N27:O29"/>
     <mergeCell ref="S1:U2"/>
     <mergeCell ref="Q1:R2"/>
     <mergeCell ref="N40:O40"/>
@@ -1959,6 +1903,67 @@
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B23:D25"/>
     <mergeCell ref="E23:F25"/>
+    <mergeCell ref="H23:I25"/>
+    <mergeCell ref="K23:L25"/>
+    <mergeCell ref="N23:O25"/>
+    <mergeCell ref="B31:D33"/>
+    <mergeCell ref="E31:F33"/>
+    <mergeCell ref="H31:I33"/>
+    <mergeCell ref="K31:L33"/>
+    <mergeCell ref="N31:O33"/>
+    <mergeCell ref="N27:O29"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="N4:O5"/>
+    <mergeCell ref="N7:O9"/>
+    <mergeCell ref="N11:O13"/>
+    <mergeCell ref="N15:O17"/>
+    <mergeCell ref="Q8:T9"/>
+    <mergeCell ref="N19:O21"/>
+    <mergeCell ref="Q23:R24"/>
+    <mergeCell ref="Q25:R26"/>
+    <mergeCell ref="S23:T24"/>
+    <mergeCell ref="S25:T26"/>
+    <mergeCell ref="E4:F5"/>
+    <mergeCell ref="K15:L17"/>
+    <mergeCell ref="B7:D9"/>
+    <mergeCell ref="B11:D13"/>
+    <mergeCell ref="B15:D17"/>
+    <mergeCell ref="E7:F9"/>
+    <mergeCell ref="E11:F13"/>
+    <mergeCell ref="E15:F17"/>
+    <mergeCell ref="H7:I9"/>
+    <mergeCell ref="K7:L9"/>
+    <mergeCell ref="H11:I13"/>
+    <mergeCell ref="K11:L13"/>
+    <mergeCell ref="H15:I17"/>
+    <mergeCell ref="H4:I5"/>
+    <mergeCell ref="K4:L5"/>
+    <mergeCell ref="B19:D21"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="Q10:T12"/>
+    <mergeCell ref="E19:F21"/>
+    <mergeCell ref="H19:I21"/>
+    <mergeCell ref="K19:L21"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="Q31:R32"/>
+    <mergeCell ref="Q33:R34"/>
+    <mergeCell ref="S27:T28"/>
+    <mergeCell ref="S29:T30"/>
+    <mergeCell ref="S31:T32"/>
+    <mergeCell ref="S33:T34"/>
+    <mergeCell ref="Q27:R28"/>
+    <mergeCell ref="Q29:R30"/>
+    <mergeCell ref="B35:D37"/>
+    <mergeCell ref="E35:F37"/>
+    <mergeCell ref="H35:I37"/>
+    <mergeCell ref="K35:L37"/>
+    <mergeCell ref="N35:O37"/>
+    <mergeCell ref="R41:S41"/>
+    <mergeCell ref="Q35:R36"/>
+    <mergeCell ref="S35:T36"/>
+    <mergeCell ref="Q37:R38"/>
+    <mergeCell ref="S37:T38"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
